--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value552.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value552.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5543411362742793</v>
+        <v>1.48670494556427</v>
       </c>
       <c r="B1">
-        <v>0.6881868777995471</v>
+        <v>1.646387457847595</v>
       </c>
       <c r="C1">
-        <v>0.9765692109276272</v>
+        <v>1.718206882476807</v>
       </c>
       <c r="D1">
-        <v>2.707187601948496</v>
+        <v>2.308779954910278</v>
       </c>
       <c r="E1">
-        <v>3.648069642016119</v>
+        <v>3.798918724060059</v>
       </c>
     </row>
   </sheetData>
